--- a/results/region_genre_05_other_genre.xlsx
+++ b/results/region_genre_05_other_genre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,25 +476,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>action</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>adventure</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>163702.0438</v>
+        <v>-20581.2491</v>
       </c>
       <c r="E2" t="n">
         <v>0.001</v>
       </c>
       <c r="F2" t="n">
-        <v>151366.291</v>
+        <v>-31358.3998</v>
       </c>
       <c r="G2" t="n">
-        <v>176037.7967</v>
+        <v>-9804.0985</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -506,25 +506,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>action</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>misc</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-25564.6393</v>
+        <v>-24876.5679</v>
       </c>
       <c r="E3" t="n">
         <v>0.001</v>
       </c>
       <c r="F3" t="n">
-        <v>-37900.3921</v>
+        <v>-36260.9165</v>
       </c>
       <c r="G3" t="n">
-        <v>-13228.8864</v>
+        <v>-13492.2193</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
@@ -536,25 +536,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>action</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PAL</t>
+          <t>rpg</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>64421.571</v>
+        <v>-16657.5098</v>
       </c>
       <c r="E4" t="n">
-        <v>0.001</v>
+        <v>0.0055</v>
       </c>
       <c r="F4" t="n">
-        <v>52085.8182</v>
+        <v>-30100.5322</v>
       </c>
       <c r="G4" t="n">
-        <v>76757.3239</v>
+        <v>-3214.4875</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
@@ -566,25 +566,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>action</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>simul</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-189266.6831</v>
+        <v>-35230.4585</v>
       </c>
       <c r="E5" t="n">
         <v>0.001</v>
       </c>
       <c r="F5" t="n">
-        <v>-201602.4359</v>
+        <v>-48117.5671</v>
       </c>
       <c r="G5" t="n">
-        <v>-176930.9302</v>
+        <v>-22343.35</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
@@ -596,28 +596,28 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>action</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PAL</t>
+          <t>sports</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-99280.4728</v>
+        <v>905.7963</v>
       </c>
       <c r="E6" t="n">
-        <v>0.001</v>
+        <v>0.9</v>
       </c>
       <c r="F6" t="n">
-        <v>-111616.2256</v>
+        <v>-9415.9987</v>
       </c>
       <c r="G6" t="n">
-        <v>-86944.7199</v>
+        <v>11227.5913</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -626,27 +626,297 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>adventure</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PAL</t>
+          <t>misc</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>89986.21030000001</v>
+        <v>-4295.3188</v>
       </c>
       <c r="E7" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-16723.8523</v>
+      </c>
+      <c r="G7" t="n">
+        <v>8133.2147</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>adventure</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>rpg</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>3923.7393</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-10414.3186</v>
+      </c>
+      <c r="G8" t="n">
+        <v>18261.7972</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>adventure</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>simul</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>-14649.2094</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0303</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-28467.4083</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-831.0105</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>adventure</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>sports</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>21487.0454</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.001</v>
       </c>
-      <c r="F7" t="n">
-        <v>77650.4574</v>
-      </c>
-      <c r="G7" t="n">
-        <v>102321.9632</v>
-      </c>
-      <c r="H7" t="b">
+      <c r="F10" t="n">
+        <v>10023.865</v>
+      </c>
+      <c r="G10" t="n">
+        <v>32950.2258</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>misc</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>rpg</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>8219.0581</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5949</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-6580.8176</v>
+      </c>
+      <c r="G11" t="n">
+        <v>23018.9338</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>misc</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>simul</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>-10353.8906</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.3065</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-24650.7097</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3942.9285</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>misc</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>sports</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>25782.3642</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F13" t="n">
+        <v>13746.546</v>
+      </c>
+      <c r="G13" t="n">
+        <v>37818.1825</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>rpg</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>simul</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>-18572.9487</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-34557.6443</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-2588.253</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>rpg</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>sports</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>17563.3061</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0047</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3564.2926</v>
+      </c>
+      <c r="G15" t="n">
+        <v>31562.3197</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>simul</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>sports</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>36136.2548</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>22670.1828</v>
+      </c>
+      <c r="G16" t="n">
+        <v>49602.3268</v>
+      </c>
+      <c r="H16" t="b">
         <v>1</v>
       </c>
     </row>

--- a/results/region_genre_05_other_genre.xlsx
+++ b/results/region_genre_05_other_genre.xlsx
@@ -485,19 +485,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-20581.2491</v>
+        <v>-17270.8369</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001</v>
+        <v>0.136</v>
       </c>
       <c r="F2" t="n">
-        <v>-31358.3998</v>
+        <v>-37280.8032</v>
       </c>
       <c r="G2" t="n">
-        <v>-9804.0985</v>
+        <v>2739.1295</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -515,16 +515,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-24876.5679</v>
+        <v>-29973.054</v>
       </c>
       <c r="E3" t="n">
         <v>0.001</v>
       </c>
       <c r="F3" t="n">
-        <v>-36260.9165</v>
+        <v>-50821.2331</v>
       </c>
       <c r="G3" t="n">
-        <v>-13492.2193</v>
+        <v>-9124.875</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
@@ -545,19 +545,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-16657.5098</v>
+        <v>-15635.8855</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0055</v>
+        <v>0.4579</v>
       </c>
       <c r="F4" t="n">
-        <v>-30100.5322</v>
+        <v>-40193.5393</v>
       </c>
       <c r="G4" t="n">
-        <v>-3214.4875</v>
+        <v>8921.768400000001</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -575,16 +575,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-35230.4585</v>
+        <v>-46512.169</v>
       </c>
       <c r="E5" t="n">
         <v>0.001</v>
       </c>
       <c r="F5" t="n">
-        <v>-48117.5671</v>
+        <v>-71274.7411</v>
       </c>
       <c r="G5" t="n">
-        <v>-22343.35</v>
+        <v>-21749.597</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
@@ -605,16 +605,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>905.7963</v>
+        <v>-3079.6399</v>
       </c>
       <c r="E6" t="n">
         <v>0.9</v>
       </c>
       <c r="F6" t="n">
-        <v>-9415.9987</v>
+        <v>-20492.7148</v>
       </c>
       <c r="G6" t="n">
-        <v>11227.5913</v>
+        <v>14333.435</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -635,16 +635,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-4295.3188</v>
+        <v>-12702.2172</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9</v>
+        <v>0.6315</v>
       </c>
       <c r="F7" t="n">
-        <v>-16723.8523</v>
+        <v>-36530.6195</v>
       </c>
       <c r="G7" t="n">
-        <v>8133.2147</v>
+        <v>11126.1851</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -665,16 +665,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3923.7393</v>
+        <v>1634.9514</v>
       </c>
       <c r="E8" t="n">
         <v>0.9</v>
       </c>
       <c r="F8" t="n">
-        <v>-10414.3186</v>
+        <v>-25498.5068</v>
       </c>
       <c r="G8" t="n">
-        <v>18261.7972</v>
+        <v>28768.4095</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -695,16 +695,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-14649.2094</v>
+        <v>-29241.3322</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0303</v>
+        <v>0.0277</v>
       </c>
       <c r="F9" t="n">
-        <v>-28467.4083</v>
+        <v>-56560.3944</v>
       </c>
       <c r="G9" t="n">
-        <v>-831.0105</v>
+        <v>-1922.2699</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
@@ -725,19 +725,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>21487.0454</v>
+        <v>14191.197</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001</v>
+        <v>0.3811</v>
       </c>
       <c r="F10" t="n">
-        <v>10023.865</v>
+        <v>-6698.0674</v>
       </c>
       <c r="G10" t="n">
-        <v>32950.2258</v>
+        <v>35080.4613</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -755,16 +755,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>8219.0581</v>
+        <v>14337.1686</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5949</v>
+        <v>0.6587</v>
       </c>
       <c r="F11" t="n">
-        <v>-6580.8176</v>
+        <v>-13420.2155</v>
       </c>
       <c r="G11" t="n">
-        <v>23018.9338</v>
+        <v>42094.5526</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -785,16 +785,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-10353.8906</v>
+        <v>-16539.115</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3065</v>
+        <v>0.5345</v>
       </c>
       <c r="F12" t="n">
-        <v>-24650.7097</v>
+        <v>-44477.9586</v>
       </c>
       <c r="G12" t="n">
-        <v>3942.9285</v>
+        <v>11399.7286</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -815,16 +815,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>25782.3642</v>
+        <v>26893.4142</v>
       </c>
       <c r="E13" t="n">
-        <v>0.001</v>
+        <v>0.0055</v>
       </c>
       <c r="F13" t="n">
-        <v>13746.546</v>
+        <v>5199.8856</v>
       </c>
       <c r="G13" t="n">
-        <v>37818.1825</v>
+        <v>48586.9427</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -845,16 +845,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>-18572.9487</v>
+        <v>-30876.2836</v>
       </c>
       <c r="E14" t="n">
-        <v>0.012</v>
+        <v>0.0491</v>
       </c>
       <c r="F14" t="n">
-        <v>-34557.6443</v>
+        <v>-61682.302</v>
       </c>
       <c r="G14" t="n">
-        <v>-2588.253</v>
+        <v>-70.2651</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
@@ -875,19 +875,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>17563.3061</v>
+        <v>12556.2456</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0047</v>
+        <v>0.6913</v>
       </c>
       <c r="F15" t="n">
-        <v>3564.2926</v>
+        <v>-12723.0142</v>
       </c>
       <c r="G15" t="n">
-        <v>31562.3197</v>
+        <v>37835.5054</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -905,16 +905,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>36136.2548</v>
+        <v>43432.5292</v>
       </c>
       <c r="E16" t="n">
         <v>0.001</v>
       </c>
       <c r="F16" t="n">
-        <v>22670.1828</v>
+        <v>17954.1543</v>
       </c>
       <c r="G16" t="n">
-        <v>49602.3268</v>
+        <v>68910.90399999999</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
